--- a/Project1/s05_2.xlsx
+++ b/Project1/s05_2.xlsx
@@ -386,2382 +386,2382 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>65.69883248079913</v>
+        <v>89.68170124125668</v>
       </c>
       <c r="B2">
-        <v>64.70590221618672</v>
+        <v>88.52650816895652</v>
       </c>
       <c r="C2">
-        <v>66.69176274541154</v>
+        <v>90.83689431355683</v>
       </c>
       <c r="D2">
-        <v>64.18027668474488</v>
+        <v>87.91498589575568</v>
       </c>
       <c r="E2">
-        <v>67.21738827685337</v>
+        <v>91.44841658675767</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>65.45449840739936</v>
+        <v>89.67088239523325</v>
       </c>
       <c r="B3">
-        <v>64.10129950239806</v>
+        <v>87.95114681665706</v>
       </c>
       <c r="C3">
-        <v>66.80769731240065</v>
+        <v>91.39061797380944</v>
       </c>
       <c r="D3">
-        <v>63.38495927294049</v>
+        <v>87.04077379284617</v>
       </c>
       <c r="E3">
-        <v>67.52403754185822</v>
+        <v>92.30099099762033</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>65.20629414562141</v>
+        <v>89.66271074446736</v>
       </c>
       <c r="B4">
-        <v>63.54068925259236</v>
+        <v>87.55259315179727</v>
       </c>
       <c r="C4">
-        <v>66.87189903865047</v>
+        <v>91.77282833713745</v>
       </c>
       <c r="D4">
-        <v>62.65897128278884</v>
+        <v>86.43556437285785</v>
       </c>
       <c r="E4">
-        <v>67.75361700845399</v>
+        <v>92.88985711607687</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>64.81027949831881</v>
+        <v>89.65653856343299</v>
       </c>
       <c r="B5">
-        <v>62.85565773504543</v>
+        <v>87.23691735709485</v>
       </c>
       <c r="C5">
-        <v>66.76490126159219</v>
+        <v>92.07615976977112</v>
       </c>
       <c r="D5">
-        <v>61.82094347594346</v>
+        <v>85.95604726198714</v>
       </c>
       <c r="E5">
-        <v>67.79961552069416</v>
+        <v>93.35702986487884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>64.77132555962619</v>
+        <v>89.65187661448135</v>
       </c>
       <c r="B6">
-        <v>62.54075935631431</v>
+        <v>86.9707992072213</v>
       </c>
       <c r="C6">
-        <v>67.00189176293807</v>
+        <v>92.3329540217414</v>
       </c>
       <c r="D6">
-        <v>61.35996893445153</v>
+        <v>85.55152255985487</v>
       </c>
       <c r="E6">
-        <v>68.18268218480085</v>
+        <v>93.75223066910783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>65.38558168983286</v>
+        <v>89.648355368441</v>
       </c>
       <c r="B7">
-        <v>62.88673469834063</v>
+        <v>86.73780840543328</v>
       </c>
       <c r="C7">
-        <v>67.88442868132509</v>
+        <v>92.55890233144872</v>
       </c>
       <c r="D7">
-        <v>61.56392500595237</v>
+        <v>85.19705791293566</v>
       </c>
       <c r="E7">
-        <v>69.20723837371335</v>
+        <v>94.09965282394634</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>65.92210539083376</v>
+        <v>89.64569571390481</v>
       </c>
       <c r="B8">
-        <v>63.15943695007192</v>
+        <v>86.52850265189296</v>
       </c>
       <c r="C8">
-        <v>68.68477383159561</v>
+        <v>92.76288877591666</v>
       </c>
       <c r="D8">
-        <v>61.69696861858253</v>
+        <v>84.87836032244513</v>
       </c>
       <c r="E8">
-        <v>70.147242163085</v>
+        <v>94.4130311053645</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>66.03212866197946</v>
+        <v>89.64368683347703</v>
       </c>
       <c r="B9">
-        <v>63.00804433032567</v>
+        <v>86.33694419303872</v>
       </c>
       <c r="C9">
-        <v>69.05621299363324</v>
+        <v>92.95042947391535</v>
       </c>
       <c r="D9">
-        <v>61.40719078541844</v>
+        <v>84.58646037794396</v>
       </c>
       <c r="E9">
-        <v>70.65706653854048</v>
+        <v>94.7009132890101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>65.96931579685077</v>
+        <v>89.64216949334198</v>
       </c>
       <c r="B10">
-        <v>62.68483071414315</v>
+        <v>86.15916835948353</v>
       </c>
       <c r="C10">
-        <v>69.25380087955838</v>
+        <v>93.12517062720043</v>
       </c>
       <c r="D10">
-        <v>60.94612933838754</v>
+        <v>84.31537893413903</v>
       </c>
       <c r="E10">
-        <v>70.99250225531399</v>
+        <v>94.96896005254493</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>65.60407773391334</v>
+        <v>89.64102342160292</v>
       </c>
       <c r="B11">
-        <v>62.05922736586845</v>
+        <v>85.99241032407956</v>
       </c>
       <c r="C11">
-        <v>69.14892810195823</v>
+        <v>93.28963651912629</v>
       </c>
       <c r="D11">
-        <v>60.18269693368073</v>
+        <v>84.06095122089673</v>
       </c>
       <c r="E11">
-        <v>71.02545853414596</v>
+        <v>95.22109562230912</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>65.29371141956256</v>
+        <v>89.64015777493562</v>
       </c>
       <c r="B12">
-        <v>61.48781990214209</v>
+        <v>85.83467603250932</v>
       </c>
       <c r="C12">
-        <v>69.09960293698302</v>
+        <v>93.44563951736191</v>
       </c>
       <c r="D12">
-        <v>59.47310263271231</v>
+        <v>83.82017568485819</v>
       </c>
       <c r="E12">
-        <v>71.11432020641281</v>
+        <v>95.46013986501305</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>64.78361523426132</v>
+        <v>89.63950393789639</v>
       </c>
       <c r="B13">
-        <v>60.71547817072896</v>
+        <v>85.68448732813947</v>
       </c>
       <c r="C13">
-        <v>68.85175229779368</v>
+        <v>93.59452054765332</v>
       </c>
       <c r="D13">
-        <v>58.56193649493753</v>
+        <v>83.59082800335672</v>
       </c>
       <c r="E13">
-        <v>71.00529397358511</v>
+        <v>95.68817987243607</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>64.65244571506044</v>
+        <v>89.63901008412208</v>
       </c>
       <c r="B14">
-        <v>60.27580671280892</v>
+        <v>85.54072261091005</v>
       </c>
       <c r="C14">
-        <v>69.02908471731196</v>
+        <v>93.7372975573341</v>
       </c>
       <c r="D14">
-        <v>57.95895397553686</v>
+        <v>83.37122027234514</v>
       </c>
       <c r="E14">
-        <v>71.34593745458402</v>
+        <v>95.90679989589901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>64.40811164166067</v>
+        <v>89.63863706831573</v>
       </c>
       <c r="B15">
-        <v>59.76826905344259</v>
+        <v>85.40251320406314</v>
       </c>
       <c r="C15">
-        <v>69.04795422987874</v>
+        <v>93.87476093256832</v>
       </c>
       <c r="D15">
-        <v>57.31208475414481</v>
+        <v>83.16004468763578</v>
       </c>
       <c r="E15">
-        <v>71.50413852917653</v>
+        <v>96.11722944899569</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>64.15990737988274</v>
+        <v>89.63835532339645</v>
       </c>
       <c r="B16">
-        <v>59.25445448762213</v>
+        <v>85.26917380313387</v>
       </c>
       <c r="C16">
-        <v>69.06536027214335</v>
+        <v>94.00753684365904</v>
       </c>
       <c r="D16">
-        <v>56.65766458670812</v>
+        <v>82.95626881836101</v>
       </c>
       <c r="E16">
-        <v>71.66215017305737</v>
+        <v>96.3204418284319</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>63.76389273258013</v>
+        <v>89.63814251686603</v>
       </c>
       <c r="B17">
-        <v>58.59027561901362</v>
+        <v>85.1401545909799</v>
       </c>
       <c r="C17">
-        <v>68.93750984614664</v>
+        <v>94.13613044275215</v>
       </c>
       <c r="D17">
-        <v>55.85152815435004</v>
+        <v>82.75906361387514</v>
       </c>
       <c r="E17">
-        <v>71.67625731081023</v>
+        <v>96.51722141985691</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>63.7249387938875</v>
+        <v>89.63798178062451</v>
       </c>
       <c r="B18">
-        <v>58.28048880332237</v>
+        <v>85.01500756036721</v>
       </c>
       <c r="C18">
-        <v>69.16938878445264</v>
+        <v>94.26095600088182</v>
       </c>
       <c r="D18">
-        <v>55.39837107392032</v>
+        <v>82.56775283567293</v>
       </c>
       <c r="E18">
-        <v>72.05150651385469</v>
+        <v>96.70821072557609</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>64.33919492409417</v>
+        <v>89.63786037392104</v>
       </c>
       <c r="B19">
-        <v>58.62115403217683</v>
+        <v>84.89336239436253</v>
       </c>
       <c r="C19">
-        <v>70.05723581601151</v>
+        <v>94.38235835347956</v>
       </c>
       <c r="D19">
-        <v>55.59420602813606</v>
+        <v>82.3817768774243</v>
       </c>
       <c r="E19">
-        <v>73.08418382005229</v>
+        <v>96.89394387041779</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>64.87571862509508</v>
+        <v>89.63776867345879</v>
       </c>
       <c r="B20">
-        <v>58.88125948010688</v>
+        <v>84.77490891526654</v>
       </c>
       <c r="C20">
-        <v>70.87017777008327</v>
+        <v>94.50062843165105</v>
       </c>
       <c r="D20">
-        <v>55.70798449183694</v>
+        <v>82.20066645753997</v>
       </c>
       <c r="E20">
-        <v>74.04345275835321</v>
+        <v>97.07487088937762</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>64.98574189624078</v>
+        <v>89.6376994106048</v>
       </c>
       <c r="B21">
-        <v>58.71198379800589</v>
+        <v>84.65938413029011</v>
       </c>
       <c r="C21">
-        <v>71.25949999447568</v>
+        <v>94.61601469091949</v>
       </c>
       <c r="D21">
-        <v>55.39085687494902</v>
+        <v>82.02402321103978</v>
       </c>
       <c r="E21">
-        <v>74.58062691753254</v>
+        <v>97.25137561016982</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>64.92292903111209</v>
+        <v>89.63764709524207</v>
       </c>
       <c r="B22">
-        <v>58.36695077292163</v>
+        <v>84.54656254483466</v>
       </c>
       <c r="C22">
-        <v>71.47890728930256</v>
+        <v>94.72873164564949</v>
       </c>
       <c r="D22">
-        <v>54.89642552165675</v>
+        <v>81.85150517998758</v>
       </c>
       <c r="E22">
-        <v>74.94943254056744</v>
+        <v>97.42378901049656</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>64.55769096817465</v>
+        <v>89.63760758059578</v>
       </c>
       <c r="B23">
-        <v>57.71654122865361</v>
+        <v>84.43624883075759</v>
       </c>
       <c r="C23">
-        <v>71.3988407076957</v>
+        <v>94.83896633043398</v>
       </c>
       <c r="D23">
-        <v>54.09505531401832</v>
+        <v>81.68281583093807</v>
       </c>
       <c r="E23">
-        <v>75.020326622331</v>
+        <v>97.5923993302535</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>64.24732465382387</v>
+        <v>89.63757773453929</v>
       </c>
       <c r="B24">
-        <v>57.11803045574661</v>
+        <v>84.3282722129704</v>
       </c>
       <c r="C24">
-        <v>71.37661885190113</v>
+        <v>94.94688325610818</v>
       </c>
       <c r="D24">
-        <v>53.34401007866369</v>
+        <v>81.51769564397935</v>
       </c>
       <c r="E24">
-        <v>75.15063922898405</v>
+        <v>97.75745982509923</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>63.73722846852263</v>
+        <v>89.63755519132629</v>
       </c>
       <c r="B25">
-        <v>56.31680209856548</v>
+        <v>84.22248212404648</v>
       </c>
       <c r="C25">
-        <v>71.15765483847979</v>
+        <v>95.05262825860609</v>
       </c>
       <c r="D25">
-        <v>52.38866565913862</v>
+        <v>81.35591559845429</v>
       </c>
       <c r="E25">
-        <v>75.08579127790664</v>
+        <v>97.91919478419828</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>63.60605894932176</v>
+        <v>89.63753816407001</v>
       </c>
       <c r="B26">
-        <v>55.85629045333522</v>
+        <v>84.11874480439347</v>
       </c>
       <c r="C26">
-        <v>71.35582744530831</v>
+        <v>95.15633152374654</v>
       </c>
       <c r="D26">
-        <v>51.75381082366635</v>
+        <v>81.19727207264026</v>
       </c>
       <c r="E26">
-        <v>75.45830707497719</v>
+        <v>98.07780425549976</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>63.36172487592199</v>
+        <v>89.63752530310578</v>
       </c>
       <c r="B27">
-        <v>55.31612665619809</v>
+        <v>84.01694061456222</v>
       </c>
       <c r="C27">
-        <v>71.40732309564588</v>
+        <v>95.25810999164933</v>
       </c>
       <c r="D27">
-        <v>51.05704423044421</v>
+        <v>81.04158280825868</v>
       </c>
       <c r="E27">
-        <v>75.66640552139977</v>
+        <v>98.23346779795287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>63.11352061414406</v>
+        <v>89.63751558900984</v>
       </c>
       <c r="B28">
-        <v>54.76901037311396</v>
+        <v>83.91696188900688</v>
       </c>
       <c r="C28">
-        <v>71.45803085517416</v>
+        <v>95.35806928901279</v>
       </c>
       <c r="D28">
-        <v>50.35169348150384</v>
+        <v>80.88868368471694</v>
       </c>
       <c r="E28">
-        <v>75.87534774678429</v>
+        <v>98.38634749330274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>62.71750596684144</v>
+        <v>89.63750825179481</v>
       </c>
       <c r="B29">
-        <v>54.07101120496232</v>
+        <v>83.81871120532819</v>
       </c>
       <c r="C29">
-        <v>71.36400072872057</v>
+        <v>95.45630529826144</v>
       </c>
       <c r="D29">
-        <v>49.49383336448643</v>
+        <v>80.73842611491943</v>
       </c>
       <c r="E29">
-        <v>75.94117856919645</v>
+        <v>98.53659038867019</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>62.67855202814883</v>
+        <v>89.6375027098767</v>
       </c>
       <c r="B30">
-        <v>53.72701189226233</v>
+        <v>83.72209997521796</v>
       </c>
       <c r="C30">
-        <v>71.63009216403533</v>
+        <v>95.55290544453544</v>
       </c>
       <c r="D30">
-        <v>48.98835278513465</v>
+        <v>80.59067492261246</v>
       </c>
       <c r="E30">
-        <v>76.36875127116301</v>
+        <v>98.68433049714093</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>63.2928081583555</v>
+        <v>89.63749852397561</v>
       </c>
       <c r="B31">
-        <v>54.03317495008375</v>
+        <v>83.62704728670391</v>
       </c>
       <c r="C31">
-        <v>72.55244136662725</v>
+        <v>95.6479497612473</v>
       </c>
       <c r="D31">
-        <v>49.13142122223842</v>
+        <v>80.44530659615361</v>
       </c>
       <c r="E31">
-        <v>77.45419509447258</v>
+        <v>98.8296904517976</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>63.82933185935639</v>
+        <v>89.63749536229628</v>
       </c>
       <c r="B32">
-        <v>54.25857226114523</v>
+        <v>83.53347894441724</v>
       </c>
       <c r="C32">
-        <v>73.40009145756756</v>
+        <v>95.74151178017532</v>
       </c>
       <c r="D32">
-        <v>49.19211817126459</v>
+        <v>80.30220783916013</v>
       </c>
       <c r="E32">
-        <v>78.46654554744819</v>
+        <v>98.97278288543242</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>63.9393551305021</v>
+        <v>89.63749297422834</v>
       </c>
       <c r="B33">
-        <v>54.05445119637228</v>
+        <v>83.44132666724794</v>
       </c>
       <c r="C33">
-        <v>73.82425906463192</v>
+        <v>95.83365928120874</v>
       </c>
       <c r="D33">
-        <v>48.8216991403589</v>
+        <v>80.16127435735092</v>
       </c>
       <c r="E33">
-        <v>79.0570111206453</v>
+        <v>99.11371159110575</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>63.8765422653734</v>
+        <v>89.6374911704817</v>
       </c>
       <c r="B34">
-        <v>53.67449221501967</v>
+        <v>83.35052741215412</v>
       </c>
       <c r="C34">
-        <v>74.07859231572714</v>
+        <v>95.92445492880927</v>
       </c>
       <c r="D34">
-        <v>48.273853146367</v>
+        <v>80.02240983491778</v>
       </c>
       <c r="E34">
-        <v>79.4792313843798</v>
+        <v>99.25257250604561</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>63.51130420243598</v>
+        <v>89.63748980808245</v>
       </c>
       <c r="B35">
-        <v>52.9891230505495</v>
+        <v>83.26102279993417</v>
       </c>
       <c r="C35">
-        <v>74.03348535432247</v>
+        <v>96.01395681623073</v>
       </c>
       <c r="D35">
-        <v>47.41901681348506</v>
+        <v>79.88552506426228</v>
       </c>
       <c r="E35">
-        <v>79.6035915913869</v>
+        <v>99.38945455190262</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>63.20093788808519</v>
+        <v>89.6374887790401</v>
       </c>
       <c r="B36">
-        <v>52.35565793530967</v>
+        <v>83.17275862408191</v>
       </c>
       <c r="C36">
-        <v>74.04621784086072</v>
+        <v>96.10221893399829</v>
       </c>
       <c r="D36">
-        <v>46.6145135246915</v>
+        <v>79.75053720085397</v>
       </c>
       <c r="E36">
-        <v>79.78736225147888</v>
+        <v>99.52444035722623</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>62.69084170278395</v>
+        <v>89.63748800178763</v>
       </c>
       <c r="B37">
-        <v>51.51951291027574</v>
+        <v>83.08568442787912</v>
       </c>
       <c r="C37">
-        <v>73.86217049529216</v>
+        <v>96.18929157569615</v>
       </c>
       <c r="D37">
-        <v>45.60576866987257</v>
+        <v>79.61736912098043</v>
       </c>
       <c r="E37">
-        <v>79.77591473569532</v>
+        <v>99.65760688259483</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>62.55967218358308</v>
+        <v>89.63748741471618</v>
       </c>
       <c r="B38">
-        <v>51.02895837983418</v>
+        <v>82.99975313796331</v>
       </c>
       <c r="C38">
-        <v>74.09038598733199</v>
+        <v>96.27522169146904</v>
       </c>
       <c r="D38">
-        <v>44.92496720643078</v>
+        <v>79.48594886476006</v>
       </c>
       <c r="E38">
-        <v>80.19437716073539</v>
+        <v>99.78902596467229</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>62.31533811018331</v>
+        <v>89.63748697129154</v>
       </c>
       <c r="B39">
-        <v>50.45358007676531</v>
+        <v>82.91492074498203</v>
       </c>
       <c r="C39">
-        <v>74.1770961436013</v>
+        <v>96.36005319760105</v>
       </c>
       <c r="D39">
-        <v>44.1743446738807</v>
+        <v>79.3562091503302</v>
       </c>
       <c r="E39">
-        <v>80.4563315464859</v>
+        <v>99.91876479225287</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>62.06713384840538</v>
+        <v>89.63748663636568</v>
       </c>
       <c r="B40">
-        <v>49.87139644263115</v>
+        <v>82.83114602378431</v>
       </c>
       <c r="C40">
-        <v>74.2628712541796</v>
+        <v>96.44382724894704</v>
       </c>
       <c r="D40">
-        <v>43.41536303958299</v>
+        <v>79.22808694786949</v>
       </c>
       <c r="E40">
-        <v>80.71890465722777</v>
+        <v>100.0468863248619</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>61.67111920110276</v>
+        <v>89.63748638339072</v>
       </c>
       <c r="B41">
-        <v>49.13848814919588</v>
+        <v>82.7483902870343</v>
       </c>
       <c r="C41">
-        <v>74.20375025300965</v>
+        <v>96.52658247974715</v>
       </c>
       <c r="D41">
-        <v>42.50411402263579</v>
+        <v>79.10152310425715</v>
       </c>
       <c r="E41">
-        <v>80.83812437956973</v>
+        <v>100.1734496625243</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>61.63216526241015</v>
+        <v>89.63748619231461</v>
       </c>
       <c r="B42">
-        <v>48.75974696363126</v>
+        <v>82.66661716725802</v>
       </c>
       <c r="C42">
-        <v>74.50458356118904</v>
+        <v>96.6083552173712</v>
       </c>
       <c r="D42">
-        <v>41.94550033385567</v>
+        <v>78.97646201085631</v>
       </c>
       <c r="E42">
-        <v>81.31883019096463</v>
+        <v>100.2985103737729</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>62.24642139261682</v>
+        <v>89.63748604799171</v>
       </c>
       <c r="B43">
-        <v>49.03134270292776</v>
+        <v>82.58579242322533</v>
       </c>
       <c r="C43">
-        <v>75.46150008230588</v>
+        <v>96.6891796727581</v>
       </c>
       <c r="D43">
-        <v>42.03570261935658</v>
+        <v>78.85285130824208</v>
       </c>
       <c r="E43">
-        <v>82.45714016587705</v>
+        <v>100.4221207877413</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>62.78294509361771</v>
+        <v>89.63748593898227</v>
       </c>
       <c r="B44">
-        <v>49.22235309295084</v>
+        <v>82.50588376727704</v>
       </c>
       <c r="C44">
-        <v>76.34353709428459</v>
+        <v>96.76908811068749</v>
       </c>
       <c r="D44">
-        <v>42.04380931092724</v>
+        <v>78.73064162275688</v>
       </c>
       <c r="E44">
-        <v>83.52208087630818</v>
+        <v>100.5443302552077</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>62.89296836476342</v>
+        <v>89.63748585664565</v>
       </c>
       <c r="B45">
-        <v>48.98403011132764</v>
+        <v>82.42686071077576</v>
       </c>
       <c r="C45">
-        <v>76.8019066181992</v>
+        <v>96.84811100251555</v>
       </c>
       <c r="D45">
-        <v>41.62108296205559</v>
+        <v>78.60978633062761</v>
       </c>
       <c r="E45">
-        <v>84.16485376747124</v>
+        <v>100.6651853826637</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>62.83015549963472</v>
+        <v>89.63748579445547</v>
       </c>
       <c r="B46">
-        <v>48.5700577741557</v>
+        <v>82.34869442531547</v>
       </c>
       <c r="C46">
-        <v>77.09025322511374</v>
+        <v>96.92627716359547</v>
       </c>
       <c r="D46">
-        <v>41.02121802930886</v>
+        <v>78.49024134606685</v>
       </c>
       <c r="E46">
-        <v>84.63909296996059</v>
+        <v>100.7847302428441</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>62.4649174366973</v>
+        <v>89.63748574748222</v>
       </c>
       <c r="B47">
-        <v>47.85086647903874</v>
+        <v>82.271357617698</v>
       </c>
       <c r="C47">
-        <v>77.07896839435585</v>
+        <v>97.00361387726643</v>
       </c>
       <c r="D47">
-        <v>40.11465521133621</v>
+        <v>78.37196493033957</v>
       </c>
       <c r="E47">
-        <v>84.81517966205838</v>
+        <v>100.9030065646249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>62.1545511223465</v>
+        <v>89.63748571200254</v>
       </c>
       <c r="B48">
-        <v>47.18377236257929</v>
+        <v>82.19482441698676</v>
       </c>
       <c r="C48">
-        <v>77.12532988211372</v>
+        <v>97.08014700701833</v>
       </c>
       <c r="D48">
-        <v>39.25872080342223</v>
+        <v>78.25491751923366</v>
       </c>
       <c r="E48">
-        <v>85.05038144127079</v>
+        <v>101.0200539047714</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>61.64445493704527</v>
+        <v>89.63748568520417</v>
       </c>
       <c r="B49">
-        <v>46.31419272270913</v>
+        <v>82.11907027219858</v>
       </c>
       <c r="C49">
-        <v>76.9747171513814</v>
+        <v>97.15590109820975</v>
       </c>
       <c r="D49">
-        <v>38.19884211780176</v>
+        <v>78.13906156674918</v>
       </c>
       <c r="E49">
-        <v>85.09006775628878</v>
+        <v>101.1359098036592</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>61.5132854178444</v>
+        <v>89.63748566496292</v>
       </c>
       <c r="B50">
-        <v>45.79355456260125</v>
+        <v>82.04407185940011</v>
       </c>
       <c r="C50">
-        <v>77.23301627308754</v>
+        <v>97.23089947052574</v>
       </c>
       <c r="D50">
-        <v>37.47203171312383</v>
+        <v>78.02436140313281</v>
       </c>
       <c r="E50">
-        <v>85.55453912256498</v>
+        <v>101.250609926793</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>61.26895134444462</v>
+        <v>89.63748564967437</v>
       </c>
       <c r="B51">
-        <v>45.18489961637089</v>
+        <v>81.9698069971475</v>
       </c>
       <c r="C51">
-        <v>77.35300307251836</v>
+        <v>97.30516430220125</v>
       </c>
       <c r="D51">
-        <v>36.67051694660015</v>
+        <v>77.91078310564299</v>
       </c>
       <c r="E51">
-        <v>85.8673857422891</v>
+        <v>101.3641881937058</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>61.0207470826667</v>
+        <v>89.63748563812669</v>
       </c>
       <c r="B52">
-        <v>44.56965079215964</v>
+        <v>81.89625456935154</v>
       </c>
       <c r="C52">
-        <v>77.47184337317376</v>
+        <v>97.37871670690184</v>
       </c>
       <c r="D52">
-        <v>35.86096646791455</v>
+        <v>77.79829438064954</v>
       </c>
       <c r="E52">
-        <v>86.18052769741884</v>
+        <v>101.4766768956038</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>60.62473243536408</v>
+        <v>89.63748562940454</v>
       </c>
       <c r="B53">
-        <v>43.80388690835937</v>
+        <v>81.82339445477071</v>
       </c>
       <c r="C53">
-        <v>77.44557796236879</v>
+        <v>97.45157680403837</v>
       </c>
       <c r="D53">
-        <v>34.89946916167686</v>
+        <v>77.68686445585365</v>
       </c>
       <c r="E53">
-        <v>86.3499957090513</v>
+        <v>101.5881068029554</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>60.58577849667147</v>
+        <v>89.63748562281656</v>
       </c>
       <c r="B54">
-        <v>43.39249772131242</v>
+        <v>81.75120746243776</v>
       </c>
       <c r="C54">
-        <v>77.77905927203051</v>
+        <v>97.52376378319535</v>
       </c>
       <c r="D54">
-        <v>34.29092466340538</v>
+        <v>77.5764639815697</v>
       </c>
       <c r="E54">
-        <v>86.88063232993756</v>
+        <v>101.6985072640634</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>61.20003462687814</v>
+        <v>89.63748561784054</v>
       </c>
       <c r="B55">
-        <v>43.63165090873301</v>
+        <v>81.67967527241137</v>
       </c>
       <c r="C55">
-        <v>78.76841834502326</v>
+        <v>97.59529596326971</v>
       </c>
       <c r="D55">
-        <v>34.33151034747335</v>
+        <v>77.46706494014164</v>
       </c>
       <c r="E55">
-        <v>88.06855890628293</v>
+        <v>101.8079062955394</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>61.73655832787903</v>
+        <v>89.63748561408208</v>
       </c>
       <c r="B56">
-        <v>43.79042195361051</v>
+        <v>81.60878038131887</v>
       </c>
       <c r="C56">
-        <v>79.68269470214756</v>
+        <v>97.6661908468453</v>
       </c>
       <c r="D56">
-        <v>34.29031121548658</v>
+        <v>77.3586405626798</v>
       </c>
       <c r="E56">
-        <v>89.18280544027149</v>
+        <v>101.9163306654844</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>61.84658159902474</v>
+        <v>89.63748561124325</v>
       </c>
       <c r="B57">
-        <v>43.52006050839152</v>
+        <v>81.53850605221956</v>
       </c>
       <c r="C57">
-        <v>80.17310268965795</v>
+        <v>97.73646517026694</v>
       </c>
       <c r="D57">
-        <v>33.81858626487622</v>
+        <v>77.2511652524</v>
       </c>
       <c r="E57">
-        <v>89.87457693317326</v>
+        <v>102.0238059700865</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>61.78376873389604</v>
+        <v>89.63748560909903</v>
       </c>
       <c r="B58">
-        <v>43.07424819994732</v>
+        <v>81.46883626837295</v>
       </c>
       <c r="C58">
-        <v>80.49328926784476</v>
+        <v>97.80613494982511</v>
       </c>
       <c r="D58">
-        <v>33.17002629820324</v>
+        <v>77.14461451393062</v>
       </c>
       <c r="E58">
-        <v>90.39751116958884</v>
+        <v>102.1303567042674</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>61.41853067095862</v>
+        <v>89.63748560747948</v>
       </c>
       <c r="B59">
-        <v>42.32341298826707</v>
+        <v>81.39975569054326</v>
       </c>
       <c r="C59">
-        <v>80.51364835365017</v>
+        <v>97.87521552441569</v>
       </c>
       <c r="D59">
-        <v>32.21506828610707</v>
+        <v>77.03896488802489</v>
       </c>
       <c r="E59">
-        <v>90.62199305581017</v>
+        <v>102.2360063269341</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>61.10816435660783</v>
+        <v>89.63748560625619</v>
       </c>
       <c r="B60">
-        <v>41.62486853737545</v>
+        <v>81.3312496175127</v>
       </c>
       <c r="C60">
-        <v>80.59146017584021</v>
+        <v>97.94372159499969</v>
       </c>
       <c r="D60">
-        <v>31.31103474239076</v>
+        <v>76.9341938911784</v>
       </c>
       <c r="E60">
-        <v>90.9052939708249</v>
+        <v>102.340777321334</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60.59806817130659</v>
+        <v>89.63748560533223</v>
       </c>
       <c r="B61">
-        <v>40.72402964916905</v>
+        <v>81.26330394951204</v>
       </c>
       <c r="C61">
-        <v>80.47210669344412</v>
+        <v>98.01166726115243</v>
       </c>
       <c r="D61">
-        <v>30.20334916193281</v>
+        <v>76.8302799597063</v>
       </c>
       <c r="E61">
-        <v>90.99278718068035</v>
+        <v>102.4446912509582</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>60.46689865210572</v>
+        <v>89.63748560463435</v>
       </c>
       <c r="B62">
-        <v>40.17462756898512</v>
+        <v>81.19590515430771</v>
       </c>
       <c r="C62">
-        <v>80.75916973522632</v>
+        <v>98.07906605496099</v>
       </c>
       <c r="D62">
-        <v>29.43254813766611</v>
+        <v>76.72720239788201</v>
       </c>
       <c r="E62">
-        <v>91.50124916654532</v>
+        <v>102.5477688113867</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>60.22256457870594</v>
+        <v>89.63748560410723</v>
       </c>
       <c r="B63">
-        <v>39.53494698472656</v>
+        <v>81.12904023571225</v>
       </c>
       <c r="C63">
-        <v>80.91018217268533</v>
+        <v>98.1459309725022</v>
       </c>
       <c r="D63">
-        <v>28.58358375243999</v>
+        <v>76.62494132978134</v>
       </c>
       <c r="E63">
-        <v>91.86154540497191</v>
+        <v>102.6500298784331</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>59.97436031692801</v>
+        <v>89.63748560370908</v>
       </c>
       <c r="B64">
-        <v>38.88886416466798</v>
+        <v>81.06269670430916</v>
       </c>
       <c r="C64">
-        <v>81.05985646918805</v>
+        <v>98.212274503109</v>
       </c>
       <c r="D64">
-        <v>27.72687674647523</v>
+        <v>76.52347765451215</v>
       </c>
       <c r="E64">
-        <v>92.2218438873808</v>
+        <v>102.751493552906</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>59.57834566962541</v>
+        <v>89.63748560340835</v>
       </c>
       <c r="B65">
-        <v>38.09245487810556</v>
+        <v>80.99686255020393</v>
       </c>
       <c r="C65">
-        <v>81.06423646114526</v>
+        <v>98.27810865661277</v>
       </c>
       <c r="D65">
-        <v>26.71851134119228</v>
+        <v>76.42279300454251</v>
       </c>
       <c r="E65">
-        <v>92.43817999805853</v>
+        <v>102.8521782022742</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>59.53939173093279</v>
+        <v>89.6374856031812</v>
       </c>
       <c r="B66">
-        <v>37.6506058887103</v>
+        <v>80.93152621763207</v>
       </c>
       <c r="C66">
-        <v>81.42817757315527</v>
+        <v>98.34344498873034</v>
       </c>
       <c r="D66">
-        <v>26.06338259521359</v>
+        <v>76.32286970686835</v>
       </c>
       <c r="E66">
-        <v>93.01540086665199</v>
+        <v>102.9521014994941</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>60.15364786113945</v>
+        <v>89.63748560300964</v>
       </c>
       <c r="B67">
-        <v>37.85948193843264</v>
+        <v>80.86667658127142</v>
       </c>
       <c r="C67">
-        <v>82.44781378384627</v>
+        <v>98.40829462474785</v>
       </c>
       <c r="D67">
-        <v>26.05766339304915</v>
+        <v>76.22369074678727</v>
       </c>
       <c r="E67">
-        <v>94.24963232922977</v>
+        <v>103.051280459232</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>60.69017156214035</v>
+        <v>89.63748560288005</v>
       </c>
       <c r="B68">
-        <v>37.98815563160797</v>
+        <v>80.80230292412077</v>
       </c>
       <c r="C68">
-        <v>83.39218749267273</v>
+        <v>98.47266828163933</v>
       </c>
       <c r="D68">
-        <v>25.97043433378339</v>
+        <v>76.12523973406749</v>
       </c>
       <c r="E68">
-        <v>95.40990879049731</v>
+        <v>103.1497314716926</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>60.80019483328606</v>
+        <v>89.63748560278216</v>
       </c>
       <c r="B69">
-        <v>37.68787379910403</v>
+        <v>80.73839491681964</v>
       </c>
       <c r="C69">
-        <v>83.91251586746809</v>
+        <v>98.53657628874468</v>
       </c>
       <c r="D69">
-        <v>25.45295009961499</v>
+        <v>76.02750087132084</v>
       </c>
       <c r="E69">
-        <v>96.14743956695713</v>
+        <v>103.2474703342435</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>60.73738196815736</v>
+        <v>89.63748560270824</v>
       </c>
       <c r="B70">
-        <v>37.21231530305424</v>
+        <v>80.67494259829623</v>
       </c>
       <c r="C70">
-        <v>84.26244863326048</v>
+        <v>98.60002860712025</v>
       </c>
       <c r="D70">
-        <v>24.75889726480328</v>
+        <v>75.93045892440669</v>
       </c>
       <c r="E70">
-        <v>96.71586667151144</v>
+        <v>103.3445122810098</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>60.37214390521994</v>
+        <v>89.6374856026524</v>
       </c>
       <c r="B71">
-        <v>36.43190539515022</v>
+        <v>80.61193635764026</v>
       </c>
       <c r="C71">
-        <v>84.31238241528965</v>
+        <v>98.66303484766455</v>
       </c>
       <c r="D71">
-        <v>23.75870865800399</v>
+        <v>75.83409919470935</v>
       </c>
       <c r="E71">
-        <v>96.98557915243589</v>
+        <v>103.4408720105955</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>60.06177759086915</v>
+        <v>89.63748560261023</v>
       </c>
       <c r="B72">
-        <v>35.70395508701934</v>
+        <v>80.54936691710766</v>
       </c>
       <c r="C72">
-        <v>84.41960009471896</v>
+        <v>98.72560428811279</v>
       </c>
       <c r="D72">
-        <v>22.80970273652854</v>
+        <v>75.73840749314603</v>
       </c>
       <c r="E72">
-        <v>97.31385244520976</v>
+        <v>103.5365637120744</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>59.55168140556791</v>
+        <v>89.63748560257837</v>
       </c>
       <c r="B73">
-        <v>34.77387658340599</v>
+        <v>80.48722531617136</v>
       </c>
       <c r="C73">
-        <v>84.32948622772982</v>
+        <v>98.78774588898537</v>
       </c>
       <c r="D73">
-        <v>21.65729902325393</v>
+        <v>75.64337011577493</v>
       </c>
       <c r="E73">
-        <v>97.44606378788188</v>
+        <v>103.6316010893818</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>59.42051188636704</v>
+        <v>89.63748560255431</v>
       </c>
       <c r="B74">
-        <v>34.19719003078689</v>
+        <v>80.42550289654078</v>
       </c>
       <c r="C74">
-        <v>84.64383374194719</v>
+        <v>98.84946830856784</v>
       </c>
       <c r="D74">
-        <v>20.84476999931257</v>
+        <v>75.54897382088463</v>
       </c>
       <c r="E74">
-        <v>97.9962537734215</v>
+        <v>103.725997384224</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>59.17617781296726</v>
+        <v>89.63748560253613</v>
       </c>
       <c r="B75">
-        <v>33.52850090508747</v>
+        <v>80.3641912880789</v>
       </c>
       <c r="C75">
-        <v>84.82385472084705</v>
+        <v>98.91077991699336</v>
       </c>
       <c r="D75">
-        <v>19.95144087840453</v>
+        <v>75.45520580745622</v>
       </c>
       <c r="E75">
-        <v>98.40091474753</v>
+        <v>103.819765397616</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>58.92797355118933</v>
+        <v>89.6374856025224</v>
       </c>
       <c r="B76">
-        <v>32.85357290015942</v>
+        <v>80.30328239555213</v>
       </c>
       <c r="C76">
-        <v>85.00237420221924</v>
+        <v>98.97168880949268</v>
       </c>
       <c r="D76">
-        <v>19.05061896907456</v>
+        <v>75.3620536948991</v>
       </c>
       <c r="E76">
-        <v>98.8053281333041</v>
+        <v>103.9129175101457</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>58.53195890388672</v>
+        <v>89.63748560251203</v>
       </c>
       <c r="B77">
-        <v>32.02847913941005</v>
+        <v>80.24276838615341</v>
       </c>
       <c r="C77">
-        <v>85.03543866836338</v>
+        <v>99.03220281887064</v>
       </c>
       <c r="D77">
-        <v>17.99838444620522</v>
+        <v>75.26950550396917</v>
       </c>
       <c r="E77">
-        <v>99.06553336156821</v>
+        <v>104.0054657010549</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>58.4930049651941</v>
+        <v>89.6374856025042</v>
       </c>
       <c r="B78">
-        <v>31.55810380897491</v>
+        <v>80.18264167774419</v>
       </c>
       <c r="C78">
-        <v>85.4279061214133</v>
+        <v>99.09232952726421</v>
       </c>
       <c r="D78">
-        <v>17.29962842641868</v>
+        <v>75.17754963878662</v>
       </c>
       <c r="E78">
-        <v>99.68638150396953</v>
+        <v>104.0974215662218</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>59.10726109540077</v>
+        <v>89.63748560249829</v>
       </c>
       <c r="B79">
-        <v>31.73860913927087</v>
+        <v>80.12289492776516</v>
       </c>
       <c r="C79">
-        <v>86.47591305153068</v>
+        <v>99.15207627723142</v>
       </c>
       <c r="D79">
-        <v>17.25051995316582</v>
+        <v>75.08617486987637</v>
       </c>
       <c r="E79">
-        <v>100.9640022376357</v>
+        <v>104.1887963351202</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>59.64378479640167</v>
+        <v>89.63748560249383</v>
       </c>
       <c r="B80">
-        <v>31.83906528684773</v>
+        <v>80.06352102277</v>
       </c>
       <c r="C80">
-        <v>87.44850430595561</v>
+        <v>99.21145018221765</v>
       </c>
       <c r="D80">
-        <v>17.12013588196607</v>
+        <v>74.99537031816133</v>
       </c>
       <c r="E80">
-        <v>102.1674337108373</v>
+        <v>104.2796008868263</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>59.75380806754738</v>
+        <v>89.63748560249046</v>
       </c>
       <c r="B81">
-        <v>31.51071669637467</v>
+        <v>80.00451306853975</v>
       </c>
       <c r="C81">
-        <v>87.99689943872008</v>
+        <v>99.27045813644116</v>
       </c>
       <c r="D81">
-        <v>16.55972724564231</v>
+        <v>74.90512543984364</v>
       </c>
       <c r="E81">
-        <v>102.9478888894524</v>
+        <v>104.3698457651373</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>59.69099520241868</v>
+        <v>89.63748560248791</v>
       </c>
       <c r="B82">
-        <v>31.00723990330178</v>
+        <v>79.94586438073881</v>
       </c>
       <c r="C82">
-        <v>88.37475050153557</v>
+        <v>99.32910682423702</v>
       </c>
       <c r="D82">
-        <v>15.82297706009877</v>
+        <v>74.81543001211439</v>
       </c>
       <c r="E82">
-        <v>103.5590133447386</v>
+        <v>104.4595411928614</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>59.32575713948125</v>
+        <v>89.637485602486</v>
       </c>
       <c r="B83">
-        <v>30.19905789016516</v>
+        <v>79.88756847607716</v>
       </c>
       <c r="C83">
-        <v>88.45245638879734</v>
+        <v>99.38740272889483</v>
       </c>
       <c r="D83">
-        <v>14.78031468361732</v>
+        <v>74.72627411963714</v>
       </c>
       <c r="E83">
-        <v>103.8711995953452</v>
+        <v>104.5486970853349</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>59.01539082513047</v>
+        <v>89.63748560248455</v>
       </c>
       <c r="B84">
-        <v>29.44347945505814</v>
+        <v>79.82961906394499</v>
       </c>
       <c r="C84">
-        <v>88.5873021952028</v>
+        <v>99.4453521410241</v>
       </c>
       <c r="D84">
-        <v>13.7890551882012</v>
+        <v>74.63764814175457</v>
       </c>
       <c r="E84">
-        <v>104.2417264620597</v>
+        <v>104.6373230632145</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>58.50529463982922</v>
+        <v>89.63748560248345</v>
       </c>
       <c r="B85">
-        <v>28.48591464298309</v>
+        <v>79.77201003848997</v>
       </c>
       <c r="C85">
-        <v>88.52467463667536</v>
+        <v>99.50296116647694</v>
       </c>
       <c r="D85">
-        <v>12.59461479368699</v>
+        <v>74.54954274037138</v>
       </c>
       <c r="E85">
-        <v>104.4159744859715</v>
+        <v>104.7254284645955</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>58.37412512062836</v>
+        <v>89.63748560248263</v>
       </c>
       <c r="B86">
-        <v>27.883328816222</v>
+        <v>79.71473547110824</v>
       </c>
       <c r="C86">
-        <v>88.86492142503471</v>
+        <v>99.56023573385701</v>
       </c>
       <c r="D86">
-        <v>11.74247624804649</v>
+        <v>74.46194884847048</v>
       </c>
       <c r="E86">
-        <v>105.0057739932102</v>
+        <v>104.8130223564948</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>58.12979104722858</v>
+        <v>89.637485602482</v>
       </c>
       <c r="B87">
-        <v>27.18736436285782</v>
+        <v>79.65778960332352</v>
       </c>
       <c r="C87">
-        <v>89.07221773159934</v>
+        <v>99.61718160164048</v>
       </c>
       <c r="D87">
-        <v>10.80743311318322</v>
+        <v>74.37485765922241</v>
       </c>
       <c r="E87">
-        <v>105.4521489812739</v>
+        <v>104.9001135457416</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>57.88158678545065</v>
+        <v>89.63748560248153</v>
       </c>
       <c r="B88">
-        <v>26.48529950355352</v>
+        <v>79.60116684002969</v>
       </c>
       <c r="C88">
-        <v>89.27787406734778</v>
+        <v>99.67380436493337</v>
       </c>
       <c r="D88">
-        <v>9.865108966517553</v>
+        <v>74.28826061565081</v>
       </c>
       <c r="E88">
-        <v>105.8980646043838</v>
+        <v>104.9867105893123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>57.48557213814804</v>
+        <v>89.63748560248118</v>
       </c>
       <c r="B89">
-        <v>25.63320525963196</v>
+        <v>79.54486174307469</v>
       </c>
       <c r="C89">
-        <v>89.33793901666412</v>
+        <v>99.73010946188766</v>
       </c>
       <c r="D89">
-        <v>8.77158076807131</v>
+        <v>74.20214940081982</v>
       </c>
       <c r="E89">
-        <v>106.1995635082248</v>
+        <v>105.0728218041425</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>57.44661819945542</v>
+        <v>89.63748560248091</v>
       </c>
       <c r="B90">
-        <v>25.13596376900941</v>
+        <v>79.48886902516477</v>
       </c>
       <c r="C90">
-        <v>89.75727262990144</v>
+        <v>99.78610217979704</v>
       </c>
       <c r="D90">
-        <v>8.031736501985591</v>
+        <v>74.11651592851149</v>
       </c>
       <c r="E90">
-        <v>106.8614998969253</v>
+        <v>105.1584552764503</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>58.06087432966209</v>
+        <v>89.63748560248071</v>
       </c>
       <c r="B91">
-        <v>25.28973526576513</v>
+        <v>79.43318354406986</v>
       </c>
       <c r="C91">
-        <v>90.83201339355905</v>
+        <v>99.84178766089155</v>
       </c>
       <c r="D91">
-        <v>7.941742158576354</v>
+        <v>74.03135233436358</v>
       </c>
       <c r="E91">
-        <v>108.1800065007478</v>
+        <v>105.2436188705978</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>58.59739803066299</v>
+        <v>89.63748560248055</v>
       </c>
       <c r="B92">
-        <v>25.36358796010639</v>
+        <v>79.37780029711189</v>
       </c>
       <c r="C92">
-        <v>91.83120810121959</v>
+        <v>99.89717090784922</v>
       </c>
       <c r="D92">
-        <v>7.770671616689</v>
+        <v>73.94665096744019</v>
       </c>
       <c r="E92">
-        <v>109.424124444637</v>
+        <v>105.3283202375209</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>58.70742130180869</v>
+        <v>89.63748560248044</v>
       </c>
       <c r="B93">
-        <v>25.00876439855972</v>
+        <v>79.32271441591958</v>
       </c>
       <c r="C93">
-        <v>92.40607820505767</v>
+        <v>99.9522567890413</v>
       </c>
       <c r="D93">
-        <v>7.169773006187754</v>
+        <v>73.86240438221004</v>
       </c>
       <c r="E93">
-        <v>110.2450695974296</v>
+        <v>105.4125668227508</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>58.64460843668</v>
+        <v>89.63748560248035</v>
       </c>
       <c r="B94">
-        <v>24.47893926492259</v>
+        <v>79.26792116143397</v>
       </c>
       <c r="C94">
-        <v>92.81027760843742</v>
+        <v>100.0070500435267</v>
       </c>
       <c r="D94">
-        <v>6.392726511118532</v>
+        <v>73.77860533090787</v>
       </c>
       <c r="E94">
-        <v>110.8964903622415</v>
+        <v>105.4963658740528</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>58.27937037374257</v>
+        <v>89.63748560248028</v>
       </c>
       <c r="B95">
-        <v>23.64453373493901</v>
+        <v>79.21341591915028</v>
       </c>
       <c r="C95">
-        <v>92.91420701254614</v>
+        <v>100.0615552858103</v>
       </c>
       <c r="D95">
-        <v>5.309958726513159</v>
+        <v>73.69524675625759</v>
       </c>
       <c r="E95">
-        <v>111.248782020972</v>
+        <v>105.579724448703</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>57.96900405939179</v>
+        <v>89.63748560248023</v>
       </c>
       <c r="B96">
-        <v>22.86285484321723</v>
+        <v>79.15919419458241</v>
       </c>
       <c r="C96">
-        <v>93.07515327556635</v>
+        <v>100.115777010378</v>
       </c>
       <c r="D96">
-        <v>4.278782027357181</v>
+        <v>73.61232178453592</v>
       </c>
       <c r="E96">
-        <v>111.6592260914264</v>
+        <v>105.6626494204245</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>57.45890787409054</v>
+        <v>89.63748560248018</v>
       </c>
       <c r="B97">
-        <v>21.87931091309886</v>
+        <v>79.10525160893778</v>
       </c>
       <c r="C97">
-        <v>93.03850483508222</v>
+        <v>100.1697195960226</v>
       </c>
       <c r="D97">
-        <v>3.044610000434275</v>
+        <v>73.5298237189575</v>
       </c>
       <c r="E97">
-        <v>111.8732057477468</v>
+        <v>105.7451474860029</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>57.32773835488968</v>
+        <v>89.63748560248015</v>
       </c>
       <c r="B98">
-        <v>21.25206830971649</v>
+        <v>79.05158389499037</v>
       </c>
       <c r="C98">
-        <v>93.40340840006286</v>
+        <v>100.2233873099699</v>
       </c>
       <c r="D98">
-        <v>2.154762169071795</v>
+        <v>73.44774603336333</v>
       </c>
       <c r="E98">
-        <v>112.5007145407076</v>
+        <v>105.827225171597</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>57.08340428148991</v>
+        <v>89.63748560248013</v>
       </c>
       <c r="B99">
-        <v>20.53031332173319</v>
+        <v>78.99818689314127</v>
       </c>
       <c r="C99">
-        <v>93.63649524124662</v>
+        <v>100.276784311819</v>
       </c>
       <c r="D99">
-        <v>1.180275815258511</v>
+        <v>73.36608236619581</v>
       </c>
       <c r="E99">
-        <v>112.9865327477213</v>
+        <v>105.9088888387644</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>56.83520001971197</v>
+        <v>89.63748560248011</v>
       </c>
       <c r="B100">
-        <v>19.80257619590701</v>
+        <v>78.94505654765615</v>
       </c>
       <c r="C100">
-        <v>93.86782384351693</v>
+        <v>100.3299146573041</v>
       </c>
       <c r="D100">
-        <v>0.198689325088921</v>
+        <v>73.28482651474457</v>
       </c>
       <c r="E100">
-        <v>113.471710714335</v>
+        <v>105.9901446902157</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>56.43918537240936</v>
+        <v>89.6374856024801</v>
       </c>
       <c r="B101">
-        <v>18.9249263036856</v>
+        <v>78.89218890307026</v>
       </c>
       <c r="C101">
-        <v>93.95344444113312</v>
+        <v>100.3827823018899</v>
       </c>
       <c r="D101">
-        <v>-0.9339228646815343</v>
+        <v>73.20397242964832</v>
       </c>
       <c r="E101">
-        <v>113.8122936095002</v>
+        <v>106.0709987753119</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>56.40023143371674</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B102">
-        <v>18.40224417268672</v>
+        <v>78.8395801007519</v>
       </c>
       <c r="C102">
-        <v>94.39821869474676</v>
+        <v>100.4353911042083</v>
       </c>
       <c r="D102">
-        <v>-1.712675232650803</v>
+        <v>73.12351420963907</v>
       </c>
       <c r="E102">
-        <v>114.5131381000843</v>
+        <v>106.1514569953211</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>57.01448756392341</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B103">
-        <v>18.53068846488438</v>
+        <v>78.7872263756157</v>
       </c>
       <c r="C103">
-        <v>95.49828666296244</v>
+        <v>100.4877448293445</v>
       </c>
       <c r="D103">
-        <v>-1.841404192830439</v>
+        <v>73.04344609651571</v>
       </c>
       <c r="E103">
-        <v>115.8703793206773</v>
+        <v>106.2315251084445</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>57.55101126492431</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B104">
-        <v>18.57932585525491</v>
+        <v>78.73512405297809</v>
       </c>
       <c r="C104">
-        <v>96.5226966745937</v>
+        <v>100.5398471519821</v>
       </c>
       <c r="D104">
-        <v>-2.051038214308143</v>
+        <v>72.96376247033466</v>
       </c>
       <c r="E104">
-        <v>117.1530607441568</v>
+        <v>106.3112087346255</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>57.66103453607001</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B105">
-        <v>18.19939739071016</v>
+        <v>78.68326954554733</v>
       </c>
       <c r="C105">
-        <v>97.12267168142986</v>
+        <v>100.5917016594128</v>
       </c>
       <c r="D105">
-        <v>-2.69033146068243</v>
+        <v>72.88445784480665</v>
       </c>
       <c r="E105">
-        <v>118.0124005328225</v>
+        <v>106.3905133601535</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>57.59822167094131</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B106">
-        <v>17.64457628984829</v>
+        <v>78.63165935054121</v>
       </c>
       <c r="C106">
-        <v>97.55186705203434</v>
+        <v>100.643311854419</v>
       </c>
       <c r="D106">
-        <v>-3.505605988736349</v>
+        <v>72.80552686288857</v>
       </c>
       <c r="E106">
-        <v>118.702049330619</v>
+        <v>106.4694443420716</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>57.23298360800389</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B107">
-        <v>16.78528229648265</v>
+        <v>78.58029004692574</v>
       </c>
       <c r="C107">
-        <v>97.68068491952514</v>
+        <v>100.6946811580344</v>
       </c>
       <c r="D107">
-        <v>-4.626437393387057</v>
+        <v>72.72696429256044</v>
       </c>
       <c r="E107">
-        <v>119.0924046093948</v>
+        <v>106.5480069123997</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>56.9226172936531</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B108">
-        <v>15.97882104546346</v>
+        <v>78.52915829276895</v>
       </c>
       <c r="C108">
-        <v>97.86641354184275</v>
+        <v>100.7458129121912</v>
       </c>
       <c r="D108">
-        <v>-5.695515440394146</v>
+        <v>72.64876502277835</v>
       </c>
       <c r="E108">
-        <v>119.5407500277004</v>
+        <v>106.6262061821818</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>56.41252110835186</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B109">
-        <v>14.97059949149931</v>
+        <v>78.47826082270359</v>
       </c>
       <c r="C109">
-        <v>97.85444272520441</v>
+        <v>100.7967103822566</v>
       </c>
       <c r="D109">
-        <v>-6.967428636117553</v>
+        <v>72.57092405959406</v>
       </c>
       <c r="E109">
-        <v>119.7924708528213</v>
+        <v>106.7040471453661</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>56.28135158915099</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B110">
-        <v>14.31980351020236</v>
+        <v>78.4275944454937</v>
       </c>
       <c r="C110">
-        <v>98.24289966809963</v>
+        <v>100.8473767594665</v>
       </c>
       <c r="D110">
-        <v>-7.893298250503044</v>
+        <v>72.49343652243337</v>
       </c>
       <c r="E110">
-        <v>120.456001428805</v>
+        <v>106.7815346825268</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>56.03701751575122</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B111">
-        <v>13.57353883686449</v>
+        <v>78.37715604169968</v>
       </c>
       <c r="C111">
-        <v>98.50049619463795</v>
+        <v>100.8978151632605</v>
       </c>
       <c r="D111">
-        <v>-8.905268933358471</v>
+        <v>72.41629764052504</v>
       </c>
       <c r="E111">
-        <v>120.9793039648609</v>
+        <v>106.8586735644351</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>55.78881325397329</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B112">
-        <v>12.82139411071969</v>
+        <v>78.32694256143698</v>
       </c>
       <c r="C112">
-        <v>98.75623239722688</v>
+        <v>100.9480286435232</v>
       </c>
       <c r="D112">
-        <v>-9.924183626980565</v>
+        <v>72.3395027494732</v>
       </c>
       <c r="E112">
-        <v>121.5018101349271</v>
+        <v>106.935468455487</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>55.39279860667068</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B113">
-        <v>11.9194373986994</v>
+        <v>78.27695102222408</v>
       </c>
       <c r="C113">
-        <v>98.86615981464196</v>
+        <v>100.9980201827361</v>
       </c>
       <c r="D113">
-        <v>-11.0939698896993</v>
+        <v>72.263047287966</v>
       </c>
       <c r="E113">
-        <v>121.8795671030407</v>
+        <v>107.0119239169942</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>55.35384466797806</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B114">
-        <v>11.37254795278435</v>
+        <v>78.22717850691531</v>
       </c>
       <c r="C114">
-        <v>99.33514138317177</v>
+        <v>101.0477926980449</v>
       </c>
       <c r="D114">
-        <v>-11.90974415103106</v>
+        <v>72.1869267946141</v>
       </c>
       <c r="E114">
-        <v>122.6174334869872</v>
+        <v>107.0880444103461</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>55.96810079818473</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B115">
-        <v>11.47688318725552</v>
+        <v>78.17762216171434</v>
       </c>
       <c r="C115">
-        <v>100.4593184091139</v>
+        <v>101.0973490432458</v>
       </c>
       <c r="D115">
-        <v>-12.07534473316922</v>
+        <v>72.11113690491264</v>
       </c>
       <c r="E115">
-        <v>124.0115463295387</v>
+        <v>107.1638343000475</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>56.50462449918562</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B116">
-        <v>11.50150855644552</v>
+        <v>78.12827919426483</v>
       </c>
       <c r="C116">
-        <v>101.5077404419257</v>
+        <v>101.1466920106953</v>
       </c>
       <c r="D116">
-        <v>-12.32170197201496</v>
+        <v>72.03567334832118</v>
       </c>
       <c r="E116">
-        <v>125.3309509703862</v>
+        <v>107.239297856639</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>56.61464777033133</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B117">
-        <v>11.09766391281517</v>
+        <v>78.0791468718144</v>
       </c>
       <c r="C117">
-        <v>102.1316316278475</v>
+        <v>101.1958243331458</v>
       </c>
       <c r="D117">
-        <v>-12.99757185792203</v>
+        <v>71.96053194545554</v>
       </c>
       <c r="E117">
-        <v>126.2268673985847</v>
+        <v>107.3144392595046</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>56.55183490520264</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B118">
-        <v>10.51902130588402</v>
+        <v>78.0302225194484</v>
       </c>
       <c r="C118">
-        <v>102.5846485045213</v>
+        <v>101.2447486855118</v>
       </c>
       <c r="D118">
-        <v>-13.84927823562488</v>
+        <v>71.88570860538687</v>
       </c>
       <c r="E118">
-        <v>126.9529480460302</v>
+        <v>107.3892625995733</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>56.18659684226521</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B119">
-        <v>9.63599933497315</v>
+        <v>77.98150351839065</v>
       </c>
       <c r="C119">
-        <v>102.7371943495573</v>
+        <v>101.2934676865695</v>
       </c>
       <c r="D119">
-        <v>-15.0063984503906</v>
+        <v>71.81119932304256</v>
       </c>
       <c r="E119">
-        <v>127.379592134921</v>
+        <v>107.4637718819176</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>55.87623052791442</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B120">
-        <v>8.805902514273065</v>
+        <v>77.93298730436763</v>
       </c>
       <c r="C120">
-        <v>102.9465585415558</v>
+        <v>101.3419839005925</v>
       </c>
       <c r="D120">
-        <v>-16.11162398187987</v>
+        <v>71.7370001767047</v>
       </c>
       <c r="E120">
-        <v>127.8640850377087</v>
+        <v>107.5379710282555</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>55.36613434261318</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B121">
-        <v>7.774136700942506</v>
+        <v>77.88467136603353</v>
       </c>
       <c r="C121">
-        <v>102.9581319842839</v>
+        <v>101.3902998389266</v>
       </c>
       <c r="D121">
-        <v>-17.41954501501029</v>
+        <v>71.6631073256013</v>
       </c>
       <c r="E121">
-        <v>128.1518137002366</v>
+        <v>107.6118638793589</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>55.23496482341231</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B122">
-        <v>7.100767778531129</v>
+        <v>77.83655324345334</v>
       </c>
       <c r="C122">
-        <v>103.3691618682935</v>
+        <v>101.4384179615068</v>
       </c>
       <c r="D122">
-        <v>-18.37993696372777</v>
+        <v>71.58951700758647</v>
       </c>
       <c r="E122">
-        <v>128.8498666105524</v>
+        <v>107.6854541973737</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>54.99063075001254</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B123">
-        <v>6.331108768439037</v>
+        <v>77.78863052664141</v>
       </c>
       <c r="C123">
-        <v>103.6501527315861</v>
+        <v>101.4863406783188</v>
       </c>
       <c r="D123">
-        <v>-19.42768619714117</v>
+        <v>71.51622553690515</v>
       </c>
       <c r="E123">
-        <v>129.4089476971662</v>
+        <v>107.758745668055</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>54.74242648823461</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B124">
-        <v>5.555658768504351</v>
+        <v>77.74090085415287</v>
       </c>
       <c r="C124">
-        <v>103.9291942079649</v>
+        <v>101.5340703508073</v>
       </c>
       <c r="D124">
-        <v>-20.48224323127152</v>
+        <v>71.44322930203913</v>
       </c>
       <c r="E124">
-        <v>129.9670962077407</v>
+        <v>107.831741902921</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>54.346411840932</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B125">
-        <v>4.630484800884155</v>
+        <v>77.6933619117259</v>
       </c>
       <c r="C125">
-        <v>104.0623388809798</v>
+        <v>101.5816092932343</v>
       </c>
       <c r="D125">
-        <v>-21.68753722229327</v>
+        <v>71.37052476363033</v>
       </c>
       <c r="E125">
-        <v>130.3803609041573</v>
+        <v>107.9044464413298</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>54.30745790223938</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B126">
-        <v>4.060465094084748</v>
+        <v>77.64601143097228</v>
       </c>
       <c r="C126">
-        <v>104.554450710394</v>
+        <v>101.6289597739879</v>
       </c>
       <c r="D126">
-        <v>-22.53868616499189</v>
+        <v>71.29810845247837</v>
       </c>
       <c r="E126">
-        <v>131.1536019694706</v>
+        <v>107.9768627524818</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>54.92171403244605</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B127">
-        <v>4.141756059576778</v>
+        <v>77.59884718811435</v>
       </c>
       <c r="C127">
-        <v>105.7016720053153</v>
+        <v>101.6761240168458</v>
       </c>
       <c r="D127">
-        <v>-22.73952991522683</v>
+        <v>71.2259769676088</v>
       </c>
       <c r="E127">
-        <v>132.5829579801189</v>
+        <v>108.0489942373514</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>55.45823773344695</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B128">
-        <v>4.143422168936169</v>
+        <v>77.55186700276637</v>
       </c>
       <c r="C128">
-        <v>106.7730532979577</v>
+        <v>101.7231042021938</v>
       </c>
       <c r="D128">
-        <v>-23.02100031189589</v>
+        <v>71.15412697440942</v>
       </c>
       <c r="E128">
-        <v>133.9374757787898</v>
+        <v>108.1208442305507</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>55.56826100459265</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B129">
-        <v>3.716702311334117</v>
+        <v>77.50506873675833</v>
       </c>
       <c r="C129">
-        <v>107.4198196978512</v>
+        <v>101.7699024682018</v>
       </c>
       <c r="D129">
-        <v>-23.73185481857717</v>
+        <v>71.08255520283134</v>
       </c>
       <c r="E129">
-        <v>134.8683768277625</v>
+        <v>108.1924160021288</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>55.50544813946395</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B130">
-        <v>3.115267591904107</v>
+        <v>77.4584502930004</v>
       </c>
       <c r="C130">
-        <v>107.8956286870238</v>
+        <v>101.8165209119598</v>
       </c>
       <c r="D130">
-        <v>-24.61841872431899</v>
+        <v>71.01125844565244</v>
       </c>
       <c r="E130">
-        <v>135.6293150032469</v>
+        <v>108.2637127593077</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>55.14021007652653</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B131">
-        <v>2.209535683942704</v>
+        <v>77.41200961438633</v>
       </c>
       <c r="C131">
-        <v>108.0708844691104</v>
+        <v>101.8629615905738</v>
       </c>
       <c r="D131">
-        <v>-25.81027079062069</v>
+        <v>70.94023355680027</v>
       </c>
       <c r="E131">
-        <v>136.0906909436737</v>
+        <v>108.3347376481599</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>54.82984376217574</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B132">
-        <v>1.356810193456312</v>
+        <v>77.36574468273442</v>
       </c>
       <c r="C132">
-        <v>108.3028773308952</v>
+        <v>101.9092265222258</v>
       </c>
       <c r="D132">
-        <v>-26.95010388609072</v>
+        <v>70.86947744973216</v>
       </c>
       <c r="E132">
-        <v>136.6097914104422</v>
+        <v>108.405493755228</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>54.3197475768745</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B133">
-        <v>0.3024960867585804</v>
+        <v>77.31965351776388</v>
       </c>
       <c r="C133">
-        <v>108.3369990669904</v>
+        <v>101.9553176871963</v>
       </c>
       <c r="D133">
-        <v>-28.29250955807664</v>
+        <v>70.79898709587007</v>
       </c>
       <c r="E133">
-        <v>136.9320047118256</v>
+        <v>108.4759841090901</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>54.18857805767363</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B134">
-        <v>-0.3925708408821222</v>
+        <v>77.27373417610599</v>
       </c>
       <c r="C134">
-        <v>108.7697269562294</v>
+        <v>102.0012370288542</v>
       </c>
       <c r="D134">
-        <v>-29.28608574216101</v>
+        <v>70.728759523088</v>
       </c>
       <c r="E134">
-        <v>137.6632418575083</v>
+        <v>108.5462116818722</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>53.94424398427385</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B135">
-        <v>-1.184643675089092</v>
+        <v>77.22798475034784</v>
       </c>
       <c r="C135">
-        <v>109.0731316436368</v>
+        <v>102.0469864546123</v>
       </c>
       <c r="D135">
-        <v>-30.36811396145532</v>
+        <v>70.65879181424964</v>
       </c>
       <c r="E135">
-        <v>138.256601930003</v>
+        <v>108.6161793907105</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>53.69603972249593</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B136">
-        <v>-1.98242902333925</v>
+        <v>77.18240336810786</v>
       </c>
       <c r="C136">
-        <v>109.3745084683311</v>
+        <v>102.0925678368523</v>
       </c>
       <c r="D136">
-        <v>-31.45682996308838</v>
+        <v>70.58908110579451</v>
       </c>
       <c r="E136">
-        <v>138.8489094080802</v>
+        <v>108.6858900991657</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>53.30002507519332</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B137">
-        <v>-2.929860711910067</v>
+        <v>77.13698819114168</v>
       </c>
       <c r="C137">
-        <v>109.5299108622967</v>
+        <v>102.1379830138185</v>
       </c>
       <c r="D137">
-        <v>-32.6961642008033</v>
+        <v>70.51962458637041</v>
       </c>
       <c r="E137">
-        <v>139.2962143511899</v>
+        <v>108.7553466185898</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>53.2610711365007</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B138">
-        <v>-3.522061344768908</v>
+        <v>77.09173741447704</v>
       </c>
       <c r="C138">
-        <v>110.0442036177703</v>
+        <v>102.1832337904831</v>
       </c>
       <c r="D138">
-        <v>-33.58123594254418</v>
+        <v>70.45041949551052</v>
       </c>
       <c r="E138">
-        <v>140.1033782155456</v>
+        <v>108.8245517094497</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>53.87532726670737</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B139">
-        <v>-3.462875327397768</v>
+        <v>77.04664926557676</v>
       </c>
       <c r="C139">
-        <v>111.2135298608125</v>
+        <v>102.2283219393834</v>
       </c>
       <c r="D139">
-        <v>-33.81588629359165</v>
+        <v>70.38146312235313</v>
       </c>
       <c r="E139">
-        <v>141.5665408270064</v>
+        <v>108.893508082607</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>54.41185096770826</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B140">
-        <v>-3.483238990075705</v>
+        <v>77.00172200352854</v>
       </c>
       <c r="C140">
-        <v>112.3069409254922</v>
+        <v>102.2732492014316</v>
       </c>
       <c r="D140">
-        <v>-34.13104831917497</v>
+        <v>70.31275280440265</v>
       </c>
       <c r="E140">
-        <v>142.9547502545915</v>
+        <v>108.9622184005575</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>54.52187423885397</v>
+        <v>89.63748560248008</v>
       </c>
       <c r="B141">
-        <v>-3.931914230796977</v>
+        <v>76.95695391826067</v>
       </c>
       <c r="C141">
-        <v>112.9756627085049</v>
+        <v>102.3180172866995</v>
       </c>
       <c r="D141">
-        <v>-34.87548068673783</v>
+        <v>70.24428592633009</v>
       </c>
       <c r="E141">
-        <v>143.9192291644458</v>
+        <v>109.0306852786301</v>
       </c>
     </row>
   </sheetData>
